--- a/voltage-regulator/Project Outputs for voltage regulator/voltage regulator.xlsx
+++ b/voltage-regulator/Project Outputs for voltage regulator/voltage regulator.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="96">
   <si>
     <t>Comment</t>
   </si>
@@ -136,9 +136,6 @@
     <t>Res1</t>
   </si>
   <si>
-    <t>L6933H1.2</t>
-  </si>
-  <si>
     <t>U1</t>
   </si>
   <si>
@@ -272,6 +269,39 @@
   </si>
   <si>
     <t>311-1136-1-ND</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>Header</t>
+  </si>
+  <si>
+    <t>WM4300-ND</t>
+  </si>
+  <si>
+    <t>Pricing Information</t>
+  </si>
+  <si>
+    <t>$/1 @ 1 pcs</t>
+  </si>
+  <si>
+    <t>497-7766-1-ND</t>
+  </si>
+  <si>
+    <t>L6932H1.2</t>
+  </si>
+  <si>
+    <t>Male Header, 3-Pin, RIGHT ANGLE</t>
+  </si>
+  <si>
+    <t>A19450-ND</t>
+  </si>
+  <si>
+    <t>Male Header, 2-Pin, RIGHT ANGLE</t>
+  </si>
+  <si>
+    <t>Call for price</t>
   </si>
 </sst>
 </file>
@@ -281,7 +311,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -302,8 +332,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -334,8 +369,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -399,11 +446,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -424,11 +482,58 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -725,26 +830,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K25"/>
+  <dimension ref="A2:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" customWidth="1"/>
+    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>85</v>
+      </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -770,13 +879,17 @@
         <v>7</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="17"/>
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
@@ -801,18 +914,22 @@
       <c r="I3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K3" s="6">
         <f>0.25</f>
         <v>0.25</v>
       </c>
-      <c r="K3" s="8">
-        <f>K$22*G3*J3</f>
+      <c r="L3" s="8">
+        <f>L$25*G3*K3</f>
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
       <c r="B4" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>16</v>
@@ -835,18 +952,22 @@
       <c r="I4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K4" s="7">
         <f>0.36</f>
         <v>0.36</v>
       </c>
-      <c r="K4" s="9">
-        <f t="shared" ref="K4:K19" si="0">K$22*G4*J4</f>
+      <c r="L4" s="9">
+        <f>L$25*G4*K4</f>
         <v>0.36</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="17"/>
       <c r="B5" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>16</v>
@@ -869,555 +990,730 @@
       <c r="I5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K5" s="6">
         <f>0.1</f>
         <v>0.1</v>
       </c>
-      <c r="K5" s="8">
+      <c r="L5" s="8">
+        <f>L$25*G5*K5</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+      <c r="B6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="5">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K6" s="7">
+        <f>0.1</f>
+        <v>0.1</v>
+      </c>
+      <c r="L6" s="9">
+        <f>L$25*G6*K6</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="18"/>
+      <c r="B7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" s="6">
+        <f>0.18</f>
+        <v>0.18</v>
+      </c>
+      <c r="L7" s="8">
+        <f>L$25*G7*K7</f>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="18"/>
+      <c r="B8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" s="6">
+        <f>0.45</f>
+        <v>0.45</v>
+      </c>
+      <c r="L8" s="8">
+        <f>G8*K8</f>
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K9" s="7">
+        <f>0.27</f>
+        <v>0.27</v>
+      </c>
+      <c r="L9" s="9">
+        <f>L$25*G9*K9</f>
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="18"/>
+      <c r="B10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="3">
+        <v>4</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K10" s="6">
+        <f>0.22</f>
+        <v>0.22</v>
+      </c>
+      <c r="L10" s="8">
+        <f>L$25*G10*K10</f>
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="18"/>
+      <c r="B11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="3">
+        <v>4</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K11" s="6">
+        <f>0.14</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L11" s="8">
+        <f>G11*K11</f>
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
+      <c r="B12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="5">
+        <v>4</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K12" s="7">
+        <f>0.22</f>
+        <v>0.22</v>
+      </c>
+      <c r="L12" s="9">
+        <f t="shared" ref="L12:L21" si="0">L$25*G12*K12</f>
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="17"/>
+      <c r="B13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K13" s="6">
+        <f>0.25</f>
+        <v>0.25</v>
+      </c>
+      <c r="L13" s="8">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="18"/>
+      <c r="B14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="5">
+        <v>1</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K14" s="7">
+        <f>0.15</f>
+        <v>0.15</v>
+      </c>
+      <c r="L14" s="9">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K15" s="6">
+        <f>0.15</f>
+        <v>0.15</v>
+      </c>
+      <c r="L15" s="8">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="5">
+        <v>1</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K16" s="7">
+        <f>0.15</f>
+        <v>0.15</v>
+      </c>
+      <c r="L16" s="9">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K17" s="6">
+        <f>0.15</f>
+        <v>0.15</v>
+      </c>
+      <c r="L17" s="8">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="5">
+        <v>1</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K18" s="7">
+        <f>0.15</f>
+        <v>0.15</v>
+      </c>
+      <c r="L18" s="9">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="17"/>
+      <c r="B19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="3">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K19" s="6">
+        <f t="shared" ref="K19" si="1">0.1</f>
+        <v>0.1</v>
+      </c>
+      <c r="L19" s="8">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="4" t="s">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="17"/>
+      <c r="B20" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="5">
-        <v>1</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="J6" s="7">
-        <f>0.1</f>
-        <v>0.1</v>
-      </c>
-      <c r="K6" s="9">
+      <c r="F20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="5">
+        <v>1</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K20" s="7">
+        <f>0.15</f>
+        <v>0.15</v>
+      </c>
+      <c r="L20" s="9">
         <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="3">
-        <v>1</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" s="6">
-        <f>0.18</f>
-        <v>0.18</v>
-      </c>
-      <c r="K7" s="8">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="18"/>
+      <c r="B21" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K21" s="6">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="8">
         <f t="shared" si="0"/>
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G8" s="5">
-        <v>1</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="J8" s="7">
-        <f>0.19</f>
-        <v>0.19</v>
-      </c>
-      <c r="K8" s="9">
-        <f t="shared" si="0"/>
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="3">
-        <v>4</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J9" s="6">
-        <f>0.16</f>
-        <v>0.16</v>
-      </c>
-      <c r="K9" s="8">
-        <f t="shared" si="0"/>
-        <v>0.64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G10" s="5">
-        <v>4</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="J10" s="7">
-        <f>0.16</f>
-        <v>0.16</v>
-      </c>
-      <c r="K10" s="9">
-        <f t="shared" si="0"/>
-        <v>0.64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M21" s="19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="18"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="3">
-        <v>1</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J11" s="6">
-        <f>0.18</f>
-        <v>0.18</v>
-      </c>
-      <c r="K11" s="8">
-        <f t="shared" si="0"/>
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="4" t="s">
+      <c r="D22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K22" s="6">
+        <v>3.94</v>
+      </c>
+      <c r="L22" s="8">
+        <f>G22*K22</f>
+        <v>3.94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K25" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="L25" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="K26" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="L26" s="12">
+        <f>SUM(L3:L21)</f>
+        <v>5.280000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C27" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="5">
-        <v>1</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J12" s="7">
-        <f t="shared" ref="J12:J18" si="1">0.1</f>
-        <v>0.1</v>
-      </c>
-      <c r="K12" s="9">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="3">
-        <v>1</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="J13" s="6">
-        <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-      <c r="K13" s="8">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="5">
-        <v>1</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="J14" s="7">
-        <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-      <c r="K14" s="9">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" s="3">
-        <v>1</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J15" s="6">
-        <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-      <c r="K15" s="8">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G16" s="5">
-        <v>1</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="J16" s="7">
-        <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-      <c r="K16" s="9">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J17" s="6">
-        <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-      <c r="K17" s="8">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18" s="5">
-        <v>1</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="J18" s="7">
-        <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-      <c r="K18" s="9">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G19" s="3">
-        <v>1</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J19" s="6">
-        <f>2.81</f>
-        <v>2.81</v>
-      </c>
-      <c r="K19" s="8">
-        <f t="shared" si="0"/>
-        <v>2.81</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J22" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="K22" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="10" t="s">
+      <c r="D27" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" s="10"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C28" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="J23" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="K23" s="12">
-        <f>SUM(K3:K19)</f>
-        <v>6.15</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C24" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" s="10" t="s">
+      <c r="D28" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E24" s="10"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C25" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="E25" s="10"/>
+      <c r="E28" s="10"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B3:L22">
+    <cfRule type="expression" dxfId="5" priority="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="2">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B15 B12:B14 B16:B18" numberStoredAsText="1"/>
+    <ignoredError sqref="B17 B14:B16 B18:B20" numberStoredAsText="1"/>
+    <ignoredError sqref="L8:L9 K19 K11:L11" formula="1"/>
+    <ignoredError sqref="L21" evalError="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/voltage-regulator/Project Outputs for voltage regulator/voltage regulator.xlsx
+++ b/voltage-regulator/Project Outputs for voltage regulator/voltage regulator.xlsx
@@ -311,7 +311,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -320,22 +320,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFC00000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="8">
@@ -344,12 +355,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -378,6 +383,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,64 +472,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -830,890 +814,894 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M28"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" customWidth="1"/>
-    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="21" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="2" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="3">
-        <v>1</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="2" t="s">
+      <c r="G2" s="15">
+        <v>1</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="K3" s="6">
+      <c r="J2" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="K2" s="16">
         <f>0.25</f>
         <v>0.25</v>
       </c>
-      <c r="L3" s="8">
-        <f>L$25*G3*K3</f>
+      <c r="L2" s="3">
+        <f>L$24*G2*K2</f>
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="4" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C3" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E3" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F3" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="5">
-        <v>1</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="4" t="s">
+      <c r="G3" s="18">
+        <v>1</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="K4" s="7">
+      <c r="J3" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="K3" s="19">
         <f>0.36</f>
         <v>0.36</v>
       </c>
-      <c r="L4" s="9">
-        <f>L$25*G4*K4</f>
+      <c r="L3" s="5">
+        <f>L$24*G3*K3</f>
         <v>0.36</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="2" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="3">
-        <v>1</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="2" t="s">
+      <c r="G4" s="15">
+        <v>1</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="K5" s="6">
+      <c r="J4" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="K4" s="16">
         <f>0.1</f>
         <v>0.1</v>
       </c>
-      <c r="L5" s="8">
-        <f>L$25*G5*K5</f>
+      <c r="L4" s="3">
+        <f>L$24*G4*K4</f>
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="4" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C5" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D5" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E5" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="5">
-        <v>1</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="4" t="s">
+      <c r="G5" s="18">
+        <v>1</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="K6" s="7">
+      <c r="J5" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="K5" s="19">
         <f>0.1</f>
         <v>0.1</v>
       </c>
-      <c r="L6" s="9">
-        <f>L$25*G6*K6</f>
+      <c r="L5" s="5">
+        <f>L$24*G5*K5</f>
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
-      <c r="B7" s="2" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C6" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D6" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E6" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="3">
-        <v>1</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="2" t="s">
+      <c r="G6" s="15">
+        <v>1</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="K7" s="6">
+      <c r="J6" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="K6" s="16">
         <f>0.18</f>
         <v>0.18</v>
       </c>
-      <c r="L7" s="8">
-        <f>L$25*G7*K7</f>
+      <c r="L6" s="3">
+        <f>L$24*G6*K6</f>
         <v>0.18</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
-      <c r="B8" s="2" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C7" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D7" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E7" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F7" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="G8" s="3">
-        <v>1</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="2" t="s">
+      <c r="G7" s="15">
+        <v>1</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="K8" s="6">
+      <c r="J7" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" s="16">
         <f>0.45</f>
         <v>0.45</v>
       </c>
-      <c r="L8" s="8">
-        <f>G8*K8</f>
+      <c r="L7" s="3">
+        <f>G7*K7</f>
         <v>0.45</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B8" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C8" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D8" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E8" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F8" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="G9" s="5">
-        <v>1</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="4" t="s">
+      <c r="G8" s="18">
+        <v>1</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="K9" s="7">
+      <c r="J8" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" s="19">
         <f>0.27</f>
         <v>0.27</v>
       </c>
-      <c r="L9" s="9">
-        <f>L$25*G9*K9</f>
+      <c r="L8" s="5">
+        <f>L$24*G8*K8</f>
         <v>0.27</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="2" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C9" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D9" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E9" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F9" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G9" s="15">
         <v>4</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="2" t="s">
+      <c r="H9" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="K10" s="6">
+      <c r="J9" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="K9" s="16">
         <f>0.22</f>
         <v>0.22</v>
       </c>
-      <c r="L10" s="8">
-        <f>L$25*G10*K10</f>
+      <c r="L9" s="3">
+        <f>L$24*G9*K9</f>
         <v>0.88</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="2" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C10" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D10" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E10" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F10" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G10" s="15">
         <v>4</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="2" t="s">
+      <c r="H10" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="K11" s="6">
+      <c r="J10" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="K10" s="16">
         <f>0.14</f>
         <v>0.14000000000000001</v>
       </c>
-      <c r="L11" s="8">
-        <f>G11*K11</f>
+      <c r="L10" s="3">
+        <f>G10*K10</f>
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="4" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C11" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D11" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E11" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F11" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G11" s="18">
         <v>4</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" s="4" t="s">
+      <c r="H11" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="K12" s="7">
+      <c r="J11" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="K11" s="19">
         <f>0.22</f>
         <v>0.22</v>
       </c>
-      <c r="L12" s="9">
-        <f t="shared" ref="L12:L21" si="0">L$25*G12*K12</f>
+      <c r="L11" s="5">
+        <f t="shared" ref="L11:L20" si="0">L$24*G11*K11</f>
         <v>0.88</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="2" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C12" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D12" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E12" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F12" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="3">
-        <v>1</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="2" t="s">
+      <c r="G12" s="15">
+        <v>1</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="K13" s="6">
+      <c r="J12" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="K12" s="16">
         <f>0.25</f>
         <v>0.25</v>
       </c>
-      <c r="L13" s="8">
+      <c r="L12" s="3">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
-      <c r="B14" s="4" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C13" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D13" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E13" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F13" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="5">
-        <v>1</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" s="4" t="s">
+      <c r="G13" s="18">
+        <v>1</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="J14" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="K14" s="7">
+      <c r="J13" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="K13" s="19">
         <f>0.15</f>
         <v>0.15</v>
       </c>
-      <c r="L14" s="9">
+      <c r="L13" s="5">
         <f t="shared" si="0"/>
         <v>0.15</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B14" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C14" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D14" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E14" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F14" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="3">
-        <v>1</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="2" t="s">
+      <c r="G14" s="15">
+        <v>1</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="K15" s="6">
+      <c r="J14" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="K14" s="16">
         <f>0.15</f>
         <v>0.15</v>
       </c>
-      <c r="L15" s="8">
+      <c r="L14" s="3">
         <f t="shared" si="0"/>
         <v>0.15</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B15" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C15" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D15" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E15" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F15" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="G16" s="5">
-        <v>1</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" s="4" t="s">
+      <c r="G15" s="18">
+        <v>1</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="K16" s="7">
+      <c r="J15" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="K15" s="19">
         <f>0.15</f>
         <v>0.15</v>
       </c>
-      <c r="L16" s="9">
+      <c r="L15" s="5">
         <f t="shared" si="0"/>
         <v>0.15</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B16" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C16" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D16" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E16" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F16" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="G17" s="3">
-        <v>1</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I17" s="2" t="s">
+      <c r="G16" s="15">
+        <v>1</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="J17" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="K17" s="6">
+      <c r="J16" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="K16" s="16">
         <f>0.15</f>
         <v>0.15</v>
       </c>
-      <c r="L17" s="8">
+      <c r="L16" s="3">
         <f t="shared" si="0"/>
         <v>0.15</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B17" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C17" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D17" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E17" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F17" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="5">
-        <v>1</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I18" s="4" t="s">
+      <c r="G17" s="18">
+        <v>1</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="J18" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="K18" s="7">
+      <c r="J17" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="K17" s="19">
         <f>0.15</f>
         <v>0.15</v>
       </c>
-      <c r="L18" s="9">
+      <c r="L17" s="5">
         <f t="shared" si="0"/>
         <v>0.15</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
-      <c r="B19" s="2" t="s">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C18" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D18" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E18" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F18" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="G19" s="3">
-        <v>1</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I19" s="2" t="s">
+      <c r="G18" s="15">
+        <v>1</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="J19" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="K19" s="6">
-        <f t="shared" ref="K19" si="1">0.1</f>
+      <c r="J18" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="K18" s="16">
+        <f t="shared" ref="K18" si="1">0.1</f>
         <v>0.1</v>
       </c>
-      <c r="L19" s="8">
+      <c r="L18" s="3">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
-      <c r="B20" s="4" t="s">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C19" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D19" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E19" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F19" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="G20" s="5">
-        <v>1</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I20" s="4" t="s">
+      <c r="G19" s="18">
+        <v>1</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="J20" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="K20" s="7">
+      <c r="J19" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="K19" s="19">
         <f>0.15</f>
         <v>0.15</v>
       </c>
-      <c r="L20" s="9">
+      <c r="L19" s="5">
         <f t="shared" si="0"/>
         <v>0.15</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
-      <c r="B21" s="2" t="s">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C20" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D20" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E20" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F20" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G21" s="3">
-        <v>1</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I21" s="2" t="s">
+      <c r="G20" s="15">
+        <v>1</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="J21" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="K21" s="6">
+      <c r="J20" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="K20" s="16">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="L21" s="8">
+      <c r="L20" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M21" s="19" t="s">
+      <c r="M20" s="20" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2" t="s">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D21" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E21" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F21" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G22" s="3">
-        <v>1</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I22" s="2" t="s">
+      <c r="G21" s="15">
+        <v>1</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="J22" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="K22" s="6">
+      <c r="J21" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="K21" s="16">
         <v>3.94</v>
       </c>
-      <c r="L22" s="8">
-        <f>G22*K22</f>
+      <c r="L21" s="3">
+        <f>G21*K21</f>
         <v>3.94</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K24" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L24" s="8">
+        <v>1</v>
+      </c>
+    </row>
     <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K25" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="L25" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="10" t="s">
+      <c r="C25" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="K26" s="13" t="s">
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="K25" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="L26" s="12">
-        <f>SUM(L3:L21)</f>
+      <c r="L25" s="11">
+        <f>SUM(L2:L20)</f>
         <v>5.280000000000002</v>
       </c>
     </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C26" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" s="9"/>
+    </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C27" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E27" s="10"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C28" s="10" t="s">
+      <c r="C27" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D27" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E28" s="10"/>
+      <c r="E27" s="9"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B3:L22">
-    <cfRule type="expression" dxfId="5" priority="1">
+  <conditionalFormatting sqref="B2:L21">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B17 B14:B16 B18:B20" numberStoredAsText="1"/>
-    <ignoredError sqref="L8:L9 K19 K11:L11" formula="1"/>
-    <ignoredError sqref="L21" evalError="1"/>
+    <ignoredError sqref="B16 B13:B15 B17:B19" numberStoredAsText="1"/>
+    <ignoredError sqref="L7:L8 K18 K10:L10" formula="1"/>
+    <ignoredError sqref="L20" evalError="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/voltage-regulator/Project Outputs for voltage regulator/voltage regulator.xlsx
+++ b/voltage-regulator/Project Outputs for voltage regulator/voltage regulator.xlsx
@@ -816,8 +816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView tabSelected="1" topLeftCell="D7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -833,7 +833,7 @@
     <col min="9" max="9" width="21.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="4"/>
   </cols>
@@ -911,7 +911,7 @@
       </c>
       <c r="L2" s="3">
         <f>L$24*G2*K2</f>
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -949,7 +949,7 @@
       </c>
       <c r="L3" s="5">
         <f>L$24*G3*K3</f>
-        <v>0.36</v>
+        <v>1.7999999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -987,7 +987,7 @@
       </c>
       <c r="L4" s="3">
         <f>L$24*G4*K4</f>
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1025,7 +1025,7 @@
       </c>
       <c r="L5" s="5">
         <f>L$24*G5*K5</f>
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1063,7 +1063,7 @@
       </c>
       <c r="L6" s="3">
         <f>L$24*G6*K6</f>
-        <v>0.18</v>
+        <v>0.89999999999999991</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1141,7 +1141,7 @@
       </c>
       <c r="L8" s="5">
         <f>L$24*G8*K8</f>
-        <v>0.27</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="L9" s="3">
         <f>L$24*G9*K9</f>
-        <v>0.88</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="L11" s="5">
         <f t="shared" ref="L11:L20" si="0">L$24*G11*K11</f>
-        <v>0.88</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="L12" s="3">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="L13" s="5">
         <f t="shared" si="0"/>
-        <v>0.15</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="L14" s="3">
         <f t="shared" si="0"/>
-        <v>0.15</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="L15" s="5">
         <f t="shared" si="0"/>
-        <v>0.15</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1451,7 +1451,7 @@
       </c>
       <c r="L16" s="3">
         <f t="shared" si="0"/>
-        <v>0.15</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="L17" s="5">
         <f t="shared" si="0"/>
-        <v>0.15</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="L18" s="3">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1567,7 +1567,7 @@
       </c>
       <c r="L19" s="5">
         <f t="shared" si="0"/>
-        <v>0.15</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -1652,7 +1652,7 @@
         <v>80</v>
       </c>
       <c r="L24" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1665,8 +1665,8 @@
         <v>74</v>
       </c>
       <c r="L25" s="11">
-        <f>SUM(L2:L20)</f>
-        <v>5.280000000000002</v>
+        <f>SUM(L2:L21)</f>
+        <v>26.3</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">

--- a/voltage-regulator/Project Outputs for voltage regulator/voltage regulator.xlsx
+++ b/voltage-regulator/Project Outputs for voltage regulator/voltage regulator.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="98">
   <si>
     <t>Comment</t>
   </si>
@@ -85,9 +85,6 @@
     <t>6-0805_M</t>
   </si>
   <si>
-    <t>732-7820-1-ND</t>
-  </si>
-  <si>
     <t>10%, 10 nF, 16 V (min)</t>
   </si>
   <si>
@@ -265,9 +262,6 @@
     <t>20%,10uF, low ESR</t>
   </si>
   <si>
-    <t>10%,100pF, ceramic</t>
-  </si>
-  <si>
     <t>311-1136-1-ND</t>
   </si>
   <si>
@@ -302,6 +296,18 @@
   </si>
   <si>
     <t>Call for price</t>
+  </si>
+  <si>
+    <t>L6933H1.2</t>
+  </si>
+  <si>
+    <t>2A ULDO w/ Soft start</t>
+  </si>
+  <si>
+    <t>10%,10nF, ceramic</t>
+  </si>
+  <si>
+    <t>478-1383-1-ND</t>
   </si>
 </sst>
 </file>
@@ -502,7 +508,21 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -816,8 +836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -840,7 +860,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>0</v>
@@ -867,13 +887,13 @@
         <v>7</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K1" s="12" t="s">
         <v>8</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -903,21 +923,21 @@
         <v>15</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K2" s="16">
-        <f>0.25</f>
-        <v>0.25</v>
+        <f>0.35</f>
+        <v>0.35</v>
       </c>
       <c r="L2" s="3">
         <f>L$24*G2*K2</f>
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>16</v>
@@ -941,7 +961,7 @@
         <v>20</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K3" s="19">
         <f>0.36</f>
@@ -955,7 +975,7 @@
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="14" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>16</v>
@@ -976,30 +996,30 @@
         <v>14</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K4" s="16">
-        <f>0.1</f>
-        <v>0.1</v>
+        <f>0.14</f>
+        <v>0.14000000000000001</v>
       </c>
       <c r="L4" s="3">
         <f>L$24*G4*K4</f>
-        <v>0.5</v>
+        <v>0.70000000000000007</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>22</v>
@@ -1014,36 +1034,36 @@
         <v>14</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K5" s="19">
-        <f>0.1</f>
-        <v>0.1</v>
+        <f>0.14</f>
+        <v>0.14000000000000001</v>
       </c>
       <c r="L5" s="5">
         <f>L$24*G5*K5</f>
-        <v>0.5</v>
+        <v>0.70000000000000007</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="14" t="s">
+      <c r="E6" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="14" t="s">
-        <v>28</v>
-      </c>
       <c r="F6" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G6" s="15">
         <v>1</v>
@@ -1052,10 +1072,10 @@
         <v>14</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K6" s="16">
         <f>0.18</f>
@@ -1069,19 +1089,19 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="D7" s="14" t="s">
+      <c r="E7" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="14" t="s">
-        <v>28</v>
-      </c>
       <c r="F7" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G7" s="15">
         <v>1</v>
@@ -1090,10 +1110,10 @@
         <v>14</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K7" s="16">
         <f>0.45</f>
@@ -1106,22 +1126,22 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G8" s="18">
         <v>1</v>
@@ -1130,10 +1150,10 @@
         <v>14</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K8" s="19">
         <f>0.27</f>
@@ -1147,19 +1167,19 @@
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" s="14" t="s">
+      <c r="E9" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="14" t="s">
-        <v>32</v>
-      </c>
       <c r="F9" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G9" s="15">
         <v>4</v>
@@ -1168,10 +1188,10 @@
         <v>14</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K9" s="16">
         <f>0.22</f>
@@ -1185,19 +1205,19 @@
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="D10" s="14" t="s">
+      <c r="E10" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="14" t="s">
-        <v>32</v>
-      </c>
       <c r="F10" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G10" s="15">
         <v>4</v>
@@ -1206,10 +1226,10 @@
         <v>14</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K10" s="16">
         <f>0.14</f>
@@ -1223,19 +1243,19 @@
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="E11" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="17" t="s">
-        <v>65</v>
-      </c>
       <c r="F11" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G11" s="18">
         <v>4</v>
@@ -1244,10 +1264,10 @@
         <v>14</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K11" s="19">
         <f>0.22</f>
@@ -1261,19 +1281,19 @@
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="14" t="s">
+      <c r="E12" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="14" t="s">
-        <v>36</v>
-      </c>
       <c r="F12" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G12" s="15">
         <v>1</v>
@@ -1282,10 +1302,10 @@
         <v>14</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K12" s="16">
         <f>0.25</f>
@@ -1299,19 +1319,19 @@
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>22</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G13" s="18">
         <v>1</v>
@@ -1320,10 +1340,10 @@
         <v>14</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K13" s="19">
         <f>0.15</f>
@@ -1336,22 +1356,22 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G14" s="15">
         <v>1</v>
@@ -1360,10 +1380,10 @@
         <v>14</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K14" s="16">
         <f>0.15</f>
@@ -1376,22 +1396,22 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E15" s="17" t="s">
         <v>22</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G15" s="18">
         <v>1</v>
@@ -1400,10 +1420,10 @@
         <v>14</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K15" s="19">
         <f>0.15</f>
@@ -1416,22 +1436,22 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E16" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G16" s="15">
         <v>1</v>
@@ -1440,10 +1460,10 @@
         <v>14</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K16" s="16">
         <f>0.15</f>
@@ -1456,22 +1476,22 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E17" s="17" t="s">
         <v>22</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G17" s="18">
         <v>1</v>
@@ -1480,10 +1500,10 @@
         <v>14</v>
       </c>
       <c r="I17" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J17" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K17" s="19">
         <f>0.15</f>
@@ -1497,19 +1517,19 @@
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E18" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G18" s="15">
         <v>1</v>
@@ -1518,36 +1538,36 @@
         <v>14</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K18" s="16">
-        <f t="shared" ref="K18" si="1">0.1</f>
-        <v>0.1</v>
+        <f>0.15</f>
+        <v>0.15</v>
       </c>
       <c r="L18" s="3">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E19" s="17" t="s">
         <v>22</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G19" s="18">
         <v>1</v>
@@ -1556,10 +1576,10 @@
         <v>14</v>
       </c>
       <c r="I19" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K19" s="19">
         <f>0.15</f>
@@ -1573,19 +1593,19 @@
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D20" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="F20" s="14" t="s">
         <v>41</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>42</v>
       </c>
       <c r="G20" s="15">
         <v>1</v>
@@ -1594,37 +1614,39 @@
         <v>14</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J20" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K20" s="16">
-        <f>0</f>
-        <v>0</v>
+        <f>3.94</f>
+        <v>3.94</v>
       </c>
       <c r="L20" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19.7</v>
       </c>
       <c r="M20" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
-      <c r="B21" s="14"/>
+      <c r="B21" s="14" t="s">
+        <v>94</v>
+      </c>
       <c r="C21" s="14" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="D21" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="F21" s="14" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>42</v>
       </c>
       <c r="G21" s="15">
         <v>1</v>
@@ -1633,10 +1655,10 @@
         <v>14</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J21" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K21" s="16">
         <v>3.94</v>
@@ -1649,7 +1671,7 @@
     <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K24" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L24" s="8">
         <v>5</v>
@@ -1657,42 +1679,42 @@
     </row>
     <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C25" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
       <c r="K25" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L25" s="11">
         <f>SUM(L2:L21)</f>
-        <v>26.3</v>
+        <v>47.15</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C26" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E26" s="9"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C27" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E27" s="9"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:L21">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1700,7 +1722,7 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="B16 B13:B15 B17:B19" numberStoredAsText="1"/>
-    <ignoredError sqref="L7:L8 K18 K10:L10" formula="1"/>
+    <ignoredError sqref="L7:L8 K10:L10" formula="1"/>
     <ignoredError sqref="L20" evalError="1"/>
   </ignoredErrors>
 </worksheet>
